--- a/testCase/UI_test.xlsx
+++ b/testCase/UI_test.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\WebTest\testCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EBDD92-2794-4AA7-99A9-F9371DDBA683}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7704A0-5B83-4C1C-A236-1E9790CF3C49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" activeTab="2" xr2:uid="{22F5B6F9-5624-4E24-B7C3-F59FDBC40639}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" activeTab="3" xr2:uid="{22F5B6F9-5624-4E24-B7C3-F59FDBC40639}"/>
   </bookViews>
   <sheets>
     <sheet name="global_variables" sheetId="2" r:id="rId1"/>
     <sheet name="objects" sheetId="1" r:id="rId2"/>
     <sheet name="testCase" sheetId="3" r:id="rId3"/>
     <sheet name="testScene" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="operation" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="获取属性">Sheet4!$B$2:$B$6</definedName>
-    <definedName name="类型">Sheet4!$A$1:$C$1</definedName>
-    <definedName name="其他操作">Sheet4!$C$2:$C$5</definedName>
-    <definedName name="页面操作">Sheet4!$A$2:$A$6</definedName>
+    <definedName name="获取属性">operation!$B$2:$B$6</definedName>
+    <definedName name="类型">operation!$A$1:$C$1</definedName>
+    <definedName name="其他操作">operation!$C$2:$C$6</definedName>
+    <definedName name="页面操作">operation!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="109">
   <si>
     <t>定位方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>leejc19930203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取网页标题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,10 +338,6 @@
   </si>
   <si>
     <t>//span[@class="user-name"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作输入值(主要用于input)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -451,6 +443,48 @@
   </si>
   <si>
     <t>步骤名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作输入值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行js脚本输入的语句(如果语句中有变量，则变量的位置用{}代替)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入初始url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open url</t>
+  </si>
+  <si>
+    <t>open url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdfghjkl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,6 +565,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -850,7 +887,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -898,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1025,13 +1062,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1039,13 +1076,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1062,26 +1099,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DBCCEC-0674-42B3-9155-3FD6319D435B}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.6640625" style="3"/>
     <col min="2" max="2" width="20.08203125" customWidth="1"/>
     <col min="3" max="5" width="13.33203125" customWidth="1"/>
     <col min="6" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="13.4140625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="8" max="10" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="13.4140625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="42" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="70" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
@@ -1091,280 +1129,342 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="29.5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="29.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" t="s">
         <v>10</v>
       </c>
-      <c r="M10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11">
+      <c r="N11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576" xr:uid="{E3D090C4-D84C-44B9-8C1A-AA78325ED68C}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{C139042C-A54C-47F9-B378-ECD8311C5FFD}">
       <formula1>"equal,not equal,contain,contain reverse"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F350:F1048576 F1" xr:uid="{86A47DE0-467E-4DBF-B873-25B36E4B23D7}">
-      <formula1>INDIRECT(E2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F351:F1048576" xr:uid="{C1031DA0-D500-438C-88DC-54FBFA56A042}">
+      <formula1>INDIRECT(E352)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{7E1E5A31-34C1-437C-B545-38E51F45F371}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{D8C70201-06F1-4218-B2DB-9FA6F35B47A5}">
       <formula1>类型</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F349" xr:uid="{2FB6E0D9-6A67-488A-A80E-20A8BC169FBD}">
-      <formula1>INDIRECT(E2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F350" xr:uid="{A581D9A8-D3D9-49E3-B0AE-4D41C8BC2B5A}">
+      <formula1>INDIRECT(E3)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{F7E3F0C7-4262-4F2E-8D3B-4842F958562B}">
+      <formula1>INDIRECT(E3)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1376,74 +1476,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818A4BFF-5A6C-4673-9A52-C3AF4C0818E9}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.6640625" style="3"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="31.75" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" t="s">
-        <v>92</v>
-      </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
+      <c r="A3" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>96</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="E3">
         <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1564,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1470,16 +1577,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
         <v>52</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1487,13 +1594,13 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1501,77 +1608,81 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testCase/UI_test.xlsx
+++ b/testCase/UI_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\WebTest\testCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7704A0-5B83-4C1C-A236-1E9790CF3C49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F87A1BF-9393-4B4B-BA0C-C22E051D1F32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" activeTab="3" xr2:uid="{22F5B6F9-5624-4E24-B7C3-F59FDBC40639}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="18000" xr2:uid="{22F5B6F9-5624-4E24-B7C3-F59FDBC40639}"/>
   </bookViews>
   <sheets>
     <sheet name="global_variables" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="117">
   <si>
     <t>定位方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用例实现步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>操作方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,19 +140,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//a[@class="lb"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击登陆按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>选择用户名登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//p[@class="tang-pass-footerBarULogin"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -486,6 +474,47 @@
   <si>
     <t>asdfghjkl</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>execute java script</t>
+  </si>
+  <si>
+    <t>res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return "{}".split('，')[0];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例实现步骤需要元素ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open new window</t>
+  </si>
+  <si>
+    <t>new_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="u1"]/a[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="TANGRAM__PSP_10__footerULoginBtn"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击第一条新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="pane-news"]/div/ul/li[1]/strong/a</t>
   </si>
 </sst>
 </file>
@@ -556,7 +585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,6 +596,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D403B1-17CF-42A3-BF58-84468B36A93D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -935,16 +967,25 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{ECCACF40-B61F-4452-8F61-A578532C51A5}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{905ED0CE-AE99-4CAB-A699-E620A0083E5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -952,10 +993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AF511B-D83A-463F-9811-EEA2883E70AA}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -992,13 +1033,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1006,13 +1047,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1026,7 +1067,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1034,13 +1075,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1048,13 +1089,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1062,13 +1103,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1076,13 +1117,27 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1099,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DBCCEC-0674-42B3-9155-3FD6319D435B}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1125,41 +1180,41 @@
       <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="O1" t="s">
         <v>5</v>
@@ -1167,19 +1222,19 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1196,97 +1251,104 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="29.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1294,157 +1356,226 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>68</v>
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12">
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
     </row>
@@ -1454,13 +1585,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{C139042C-A54C-47F9-B378-ECD8311C5FFD}">
       <formula1>"equal,not equal,contain,contain reverse"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F351:F1048576" xr:uid="{C1031DA0-D500-438C-88DC-54FBFA56A042}">
-      <formula1>INDIRECT(E352)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F352:F1048576" xr:uid="{C1031DA0-D500-438C-88DC-54FBFA56A042}">
+      <formula1>INDIRECT(E353)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{D8C70201-06F1-4218-B2DB-9FA6F35B47A5}">
       <formula1>类型</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F350" xr:uid="{A581D9A8-D3D9-49E3-B0AE-4D41C8BC2B5A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F351" xr:uid="{A581D9A8-D3D9-49E3-B0AE-4D41C8BC2B5A}">
       <formula1>INDIRECT(E3)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{F7E3F0C7-4262-4F2E-8D3B-4842F958562B}">
@@ -1476,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818A4BFF-5A6C-4673-9A52-C3AF4C0818E9}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1492,22 +1623,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>90</v>
-      </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1515,16 +1646,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
         <v>91</v>
       </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1535,16 +1666,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1564,7 +1695,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1577,107 +1708,107 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
